--- a/docs/graphs/graficas.xlsx
+++ b/docs/graphs/graficas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aquem\Projects\MCA_TFM_VirtualThreads\docs\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E041A9-551B-49E6-ACCA-C005390A2BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A55D812-8B0C-4388-AC3A-ECD2367A9741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC22B5BA-57BB-42CB-9AB1-04A62C6385CF}"/>
   </bookViews>
@@ -214,21 +214,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,8 +861,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19931150526843683"/>
-          <c:y val="8.7481139031983304E-3"/>
+          <c:x val="0.19245570858437516"/>
+          <c:y val="4.9149505514366459E-4"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -897,7 +898,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1010,10 +1011,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.9682E-2</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.88235E-4</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,7 +1034,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="129"/>
-        <c:overlap val="-35"/>
         <c:axId val="1743202479"/>
         <c:axId val="1743224223"/>
       </c:barChart>
@@ -1043,7 +1043,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1094,7 +1094,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2337,15 +2337,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>85398</xdr:colOff>
+      <xdr:colOff>2055</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>105103</xdr:rowOff>
+      <xdr:rowOff>65485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1175845</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>151086</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>494109</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>79649</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2690,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F342759C-B4B3-4E50-9DE9-956B0EAEC4AE}">
-  <dimension ref="B3:I5"/>
+  <dimension ref="B3:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="12">
-        <v>2.9682E-2</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -2758,11 +2758,15 @@
         <v>4</v>
       </c>
       <c r="I5" s="13">
-        <v>1.88235E-4</v>
+        <v>0.36</v>
       </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>